--- a/data/固收/固收+基金收益大于0.xlsx
+++ b/data/固收/固收+基金收益大于0.xlsx
@@ -4291,7 +4291,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4301,13 +4301,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4777,28 +4770,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4807,118 +4803,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5272,11 +5265,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I696"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5348,7 +5341,7 @@
         <v>1.4877619580867</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" hidden="1" spans="1:9">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5377,7 +5370,7 @@
         <v>3.69738339021615</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" hidden="1" spans="1:9">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -5725,7 +5718,7 @@
         <v>4.32088285229204</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" hidden="1" spans="1:9">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -5754,7 +5747,7 @@
         <v>3.98704403485772</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" hidden="1" spans="1:9">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -6044,7 +6037,7 @@
         <v>4.11602209944751</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" hidden="1" spans="1:9">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -6189,7 +6182,7 @@
         <v>2.20911949685535</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" hidden="1" spans="1:9">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -6363,7 +6356,7 @@
         <v>2.45972631214273</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" hidden="1" spans="1:9">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -6392,7 +6385,7 @@
         <v>3.20718877849211</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" hidden="1" spans="1:9">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -6595,7 +6588,7 @@
         <v>2.63817928471899</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" hidden="1" spans="1:9">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -6972,7 +6965,7 @@
         <v>2.26051510098202</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" hidden="1" spans="1:9">
       <c r="A59" t="s">
         <v>128</v>
       </c>
@@ -7059,7 +7052,7 @@
         <v>4.37906519437302</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" hidden="1" spans="1:9">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -7262,7 +7255,7 @@
         <v>3.05370616955171</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" hidden="1" spans="1:9">
       <c r="A69" t="s">
         <v>148</v>
       </c>
@@ -7842,7 +7835,7 @@
         <v>2.48954946586158</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" hidden="1" spans="1:9">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -8219,7 +8212,7 @@
         <v>2.47375627567322</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" hidden="1" spans="1:9">
       <c r="A102" t="s">
         <v>214</v>
       </c>
@@ -8364,7 +8357,7 @@
         <v>2.91017628952522</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" hidden="1" spans="1:9">
       <c r="A107" t="s">
         <v>224</v>
       </c>
@@ -8538,7 +8531,7 @@
         <v>3.25863838522067</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" hidden="1" spans="1:9">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -8712,7 +8705,7 @@
         <v>2.49400479616307</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" hidden="1" spans="1:9">
       <c r="A119" t="s">
         <v>248</v>
       </c>
@@ -9408,7 +9401,7 @@
         <v>1.65840640487992</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" hidden="1" spans="1:9">
       <c r="A143" t="s">
         <v>296</v>
       </c>
@@ -9727,7 +9720,7 @@
         <v>1.98169293196187</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" hidden="1" spans="1:9">
       <c r="A154" t="s">
         <v>318</v>
       </c>
@@ -10017,7 +10010,7 @@
         <v>0.459834834834826</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" hidden="1" spans="1:9">
       <c r="A164" t="s">
         <v>338</v>
       </c>
@@ -10423,7 +10416,7 @@
         <v>2.42518059855521</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" hidden="1" spans="1:9">
       <c r="A178" t="s">
         <v>366</v>
       </c>
@@ -10452,7 +10445,7 @@
         <v>3.6923076923077</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" hidden="1" spans="1:9">
       <c r="A179" t="s">
         <v>368</v>
       </c>
@@ -10684,7 +10677,7 @@
         <v>1.73697270471464</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" hidden="1" spans="1:9">
       <c r="A187" t="s">
         <v>384</v>
       </c>
@@ -12018,7 +12011,7 @@
         <v>0.905611054056581</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" hidden="1" spans="1:9">
       <c r="A233" t="s">
         <v>476</v>
       </c>
@@ -12569,7 +12562,7 @@
         <v>1.54383385407094</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" hidden="1" spans="1:9">
       <c r="A252" t="s">
         <v>514</v>
       </c>
@@ -12656,7 +12649,7 @@
         <v>1.5998476335587</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" hidden="1" spans="1:9">
       <c r="A255" t="s">
         <v>520</v>
       </c>
@@ -14222,7 +14215,7 @@
         <v>2.91484092208039</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" hidden="1" spans="1:9">
       <c r="A309" t="s">
         <v>628</v>
       </c>
@@ -14918,7 +14911,7 @@
         <v>3.19488817891374</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" hidden="1" spans="1:9">
       <c r="A333" t="s">
         <v>676</v>
       </c>
@@ -15121,7 +15114,7 @@
         <v>3.74622356495469</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" hidden="1" spans="1:9">
       <c r="A340" t="s">
         <v>690</v>
       </c>
@@ -15933,7 +15926,7 @@
         <v>1.38730353850207</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" hidden="1" spans="1:9">
       <c r="A368" t="s">
         <v>746</v>
       </c>
@@ -16919,7 +16912,7 @@
         <v>2.51242657026661</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" hidden="1" spans="1:9">
       <c r="A402" t="s">
         <v>814</v>
       </c>
@@ -17006,7 +16999,7 @@
         <v>2.04354469060352</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" hidden="1" spans="1:9">
       <c r="A405" t="s">
         <v>820</v>
       </c>
@@ -17151,7 +17144,7 @@
         <v>1.23503346846423</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" hidden="1" spans="1:9">
       <c r="A410" t="s">
         <v>830</v>
       </c>
@@ -17180,7 +17173,7 @@
         <v>3.58397751229796</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" hidden="1" spans="1:9">
       <c r="A411" t="s">
         <v>832</v>
       </c>
@@ -17586,7 +17579,7 @@
         <v>2.42130750605328</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" hidden="1" spans="1:9">
       <c r="A425" t="s">
         <v>860</v>
       </c>
@@ -17818,7 +17811,7 @@
         <v>2.41702741702741</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" hidden="1" spans="1:9">
       <c r="A433" t="s">
         <v>876</v>
       </c>
@@ -17963,7 +17956,7 @@
         <v>1.50090244134132</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" hidden="1" spans="1:9">
       <c r="A438" t="s">
         <v>886</v>
       </c>
@@ -18369,7 +18362,7 @@
         <v>1.01498308361527</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" hidden="1" spans="1:9">
       <c r="A452" t="s">
         <v>914</v>
       </c>
@@ -18804,7 +18797,7 @@
         <v>1.53426204819277</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" hidden="1" spans="1:9">
       <c r="A467" t="s">
         <v>944</v>
       </c>
@@ -19239,7 +19232,7 @@
         <v>2.06516750803122</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" hidden="1" spans="1:9">
       <c r="A482" t="s">
         <v>974</v>
       </c>
@@ -19355,7 +19348,7 @@
         <v>2.30991337824832</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" hidden="1" spans="1:9">
       <c r="A486" t="s">
         <v>982</v>
       </c>
@@ -19674,7 +19667,7 @@
         <v>1.58345752608047</v>
       </c>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" hidden="1" spans="1:9">
       <c r="A497" t="s">
         <v>1004</v>
       </c>
@@ -19703,7 +19696,7 @@
         <v>2.62444160816847</v>
       </c>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" hidden="1" spans="1:9">
       <c r="A498" t="s">
         <v>1006</v>
       </c>
@@ -20022,7 +20015,7 @@
         <v>0.647668393782394</v>
       </c>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" hidden="1" spans="1:9">
       <c r="A509" t="s">
         <v>1028</v>
       </c>
@@ -20370,7 +20363,7 @@
         <v>2.2654315326057</v>
       </c>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" hidden="1" spans="1:9">
       <c r="A521" t="s">
         <v>1052</v>
       </c>
@@ -20515,7 +20508,7 @@
         <v>2.69125811611931</v>
       </c>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" hidden="1" spans="1:9">
       <c r="A526" t="s">
         <v>1062</v>
       </c>
@@ -20660,7 +20653,7 @@
         <v>0.286724648762295</v>
       </c>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" hidden="1" spans="1:9">
       <c r="A531" t="s">
         <v>1072</v>
       </c>
@@ -20834,7 +20827,7 @@
         <v>2.44237371260421</v>
       </c>
     </row>
-    <row r="537" spans="1:9">
+    <row r="537" hidden="1" spans="1:9">
       <c r="A537" t="s">
         <v>1084</v>
       </c>
@@ -20863,7 +20856,7 @@
         <v>2.30992034757422</v>
       </c>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" hidden="1" spans="1:9">
       <c r="A538" t="s">
         <v>1086</v>
       </c>
@@ -21037,7 +21030,7 @@
         <v>1.99904807234649</v>
       </c>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" hidden="1" spans="1:9">
       <c r="A544" t="s">
         <v>1098</v>
       </c>
@@ -21066,7 +21059,7 @@
         <v>2.79520821448946</v>
       </c>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" hidden="1" spans="1:9">
       <c r="A545" t="s">
         <v>1100</v>
       </c>
@@ -21327,7 +21320,7 @@
         <v>1.39273108842888</v>
       </c>
     </row>
-    <row r="554" spans="1:9">
+    <row r="554" hidden="1" spans="1:9">
       <c r="A554" t="s">
         <v>1118</v>
       </c>
@@ -21443,7 +21436,7 @@
         <v>3.53455492512325</v>
       </c>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" hidden="1" spans="1:9">
       <c r="A558" t="s">
         <v>1126</v>
       </c>
@@ -21617,7 +21610,7 @@
         <v>2.83966797728265</v>
       </c>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" hidden="1" spans="1:9">
       <c r="A564" t="s">
         <v>1138</v>
       </c>
@@ -21762,7 +21755,7 @@
         <v>1.95929237207535</v>
       </c>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" hidden="1" spans="1:9">
       <c r="A569" t="s">
         <v>1148</v>
       </c>
@@ -21907,7 +21900,7 @@
         <v>1.10346128454212</v>
       </c>
     </row>
-    <row r="574" spans="1:9">
+    <row r="574" hidden="1" spans="1:9">
       <c r="A574" t="s">
         <v>1158</v>
       </c>
@@ -21936,7 +21929,7 @@
         <v>2.26344754127462</v>
       </c>
     </row>
-    <row r="575" spans="1:9">
+    <row r="575" hidden="1" spans="1:9">
       <c r="A575" t="s">
         <v>1160</v>
       </c>
@@ -22081,7 +22074,7 @@
         <v>2.01817312290769</v>
       </c>
     </row>
-    <row r="580" spans="1:9">
+    <row r="580" hidden="1" spans="1:9">
       <c r="A580" t="s">
         <v>1170</v>
       </c>
@@ -22226,7 +22219,7 @@
         <v>1.09984697781177</v>
       </c>
     </row>
-    <row r="585" spans="1:9">
+    <row r="585" hidden="1" spans="1:9">
       <c r="A585" t="s">
         <v>1180</v>
       </c>
@@ -22284,7 +22277,7 @@
         <v>3.33964049195838</v>
       </c>
     </row>
-    <row r="587" spans="1:9">
+    <row r="587" hidden="1" spans="1:9">
       <c r="A587" t="s">
         <v>1184</v>
       </c>
@@ -22400,7 +22393,7 @@
         <v>0.992786783525956</v>
       </c>
     </row>
-    <row r="591" spans="1:9">
+    <row r="591" hidden="1" spans="1:9">
       <c r="A591" t="s">
         <v>1192</v>
       </c>
@@ -22487,7 +22480,7 @@
         <v>0.428530616131792</v>
       </c>
     </row>
-    <row r="594" spans="1:9">
+    <row r="594" hidden="1" spans="1:9">
       <c r="A594" t="s">
         <v>1198</v>
       </c>
@@ -22690,7 +22683,7 @@
         <v>2.03180212014136</v>
       </c>
     </row>
-    <row r="601" spans="1:9">
+    <row r="601" hidden="1" spans="1:9">
       <c r="A601" t="s">
         <v>1212</v>
       </c>
@@ -22806,7 +22799,7 @@
         <v>3.45121028744326</v>
       </c>
     </row>
-    <row r="605" spans="1:9">
+    <row r="605" hidden="1" spans="1:9">
       <c r="A605" t="s">
         <v>1220</v>
       </c>
@@ -22864,7 +22857,7 @@
         <v>1.73118070414317</v>
       </c>
     </row>
-    <row r="607" spans="1:9">
+    <row r="607" hidden="1" spans="1:9">
       <c r="A607" t="s">
         <v>1224</v>
       </c>
@@ -22893,7 +22886,7 @@
         <v>3.84615384615385</v>
       </c>
     </row>
-    <row r="608" spans="1:9">
+    <row r="608" hidden="1" spans="1:9">
       <c r="A608" t="s">
         <v>1226</v>
       </c>
@@ -22922,7 +22915,7 @@
         <v>3.37979094076655</v>
       </c>
     </row>
-    <row r="609" spans="1:9">
+    <row r="609" hidden="1" spans="1:9">
       <c r="A609" t="s">
         <v>1228</v>
       </c>
@@ -23299,7 +23292,7 @@
         <v>2.83269961977187</v>
       </c>
     </row>
-    <row r="622" spans="1:9">
+    <row r="622" hidden="1" spans="1:9">
       <c r="A622" t="s">
         <v>1254</v>
       </c>
@@ -23415,7 +23408,7 @@
         <v>1.17307513266921</v>
       </c>
     </row>
-    <row r="626" spans="1:9">
+    <row r="626" hidden="1" spans="1:9">
       <c r="A626" t="s">
         <v>1262</v>
       </c>
@@ -23531,7 +23524,7 @@
         <v>1.72346259302779</v>
       </c>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" hidden="1" spans="1:9">
       <c r="A630" t="s">
         <v>1270</v>
       </c>
@@ -23705,7 +23698,7 @@
         <v>1.54973231896308</v>
       </c>
     </row>
-    <row r="636" spans="1:9">
+    <row r="636" hidden="1" spans="1:9">
       <c r="A636" t="s">
         <v>1282</v>
       </c>
@@ -23763,7 +23756,7 @@
         <v>4.17806281241158</v>
       </c>
     </row>
-    <row r="638" spans="1:9">
+    <row r="638" hidden="1" spans="1:9">
       <c r="A638" t="s">
         <v>1286</v>
       </c>
@@ -23908,7 +23901,7 @@
         <v>0.255981096780539</v>
       </c>
     </row>
-    <row r="643" spans="1:9">
+    <row r="643" hidden="1" spans="1:9">
       <c r="A643" t="s">
         <v>1296</v>
       </c>
@@ -23995,7 +23988,7 @@
         <v>1.83975715205593</v>
       </c>
     </row>
-    <row r="646" spans="1:9">
+    <row r="646" hidden="1" spans="1:9">
       <c r="A646" t="s">
         <v>1302</v>
       </c>
@@ -24198,7 +24191,7 @@
         <v>2.02884615384614</v>
       </c>
     </row>
-    <row r="653" spans="1:9">
+    <row r="653" hidden="1" spans="1:9">
       <c r="A653" t="s">
         <v>1316</v>
       </c>
@@ -24314,7 +24307,7 @@
         <v>2.31414521261209</v>
       </c>
     </row>
-    <row r="657" spans="1:9">
+    <row r="657" hidden="1" spans="1:9">
       <c r="A657" t="s">
         <v>1324</v>
       </c>
@@ -24662,7 +24655,7 @@
         <v>0.93873995935351</v>
       </c>
     </row>
-    <row r="669" spans="1:9">
+    <row r="669" hidden="1" spans="1:9">
       <c r="A669" t="s">
         <v>1348</v>
       </c>
@@ -24691,7 +24684,7 @@
         <v>2.21302340391658</v>
       </c>
     </row>
-    <row r="670" spans="1:9">
+    <row r="670" hidden="1" spans="1:9">
       <c r="A670" t="s">
         <v>1350</v>
       </c>
@@ -24865,7 +24858,7 @@
         <v>1.09354806640818</v>
       </c>
     </row>
-    <row r="676" spans="1:9">
+    <row r="676" hidden="1" spans="1:9">
       <c r="A676" t="s">
         <v>1362</v>
       </c>
@@ -24923,7 +24916,7 @@
         <v>3.57007216103305</v>
       </c>
     </row>
-    <row r="678" spans="1:9">
+    <row r="678" hidden="1" spans="1:9">
       <c r="A678" t="s">
         <v>1366</v>
       </c>
@@ -25155,7 +25148,7 @@
         <v>2.60263209585543</v>
       </c>
     </row>
-    <row r="686" spans="1:9">
+    <row r="686" hidden="1" spans="1:9">
       <c r="A686" t="s">
         <v>1382</v>
       </c>
@@ -25300,7 +25293,7 @@
         <v>2.62114324402746</v>
       </c>
     </row>
-    <row r="691" spans="1:9">
+    <row r="691" hidden="1" spans="1:9">
       <c r="A691" t="s">
         <v>1392</v>
       </c>
@@ -25329,7 +25322,7 @@
         <v>2.29730796557986</v>
       </c>
     </row>
-    <row r="692" spans="1:9">
+    <row r="692" hidden="1" spans="1:9">
       <c r="A692" t="s">
         <v>1394</v>
       </c>
@@ -25416,7 +25409,7 @@
         <v>1.77147918511958</v>
       </c>
     </row>
-    <row r="695" spans="1:9">
+    <row r="695" hidden="1" spans="1:9">
       <c r="A695" t="s">
         <v>1400</v>
       </c>
@@ -25445,7 +25438,7 @@
         <v>2.43272628431639</v>
       </c>
     </row>
-    <row r="696" spans="1:9">
+    <row r="696" hidden="1" spans="1:9">
       <c r="A696" t="s">
         <v>1402</v>
       </c>
@@ -25708,6 +25701,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I704">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="债券型-中短债"/>
+        <filter val="债券型-长债"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:I704">
@@ -25724,7 +25723,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="B2:I8"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25769,437 +25768,437 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>833</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>15.8775</v>
+        <v>4.4275</v>
       </c>
       <c r="E2">
-        <v>14.645</v>
+        <v>10.1975</v>
       </c>
       <c r="F2">
-        <v>8.01</v>
+        <v>13.905</v>
       </c>
       <c r="G2">
-        <v>7.68672951414069</v>
+        <v>13.5826977327343</v>
       </c>
       <c r="H2">
-        <v>18.9445196211096</v>
+        <v>1.63723325974982</v>
       </c>
       <c r="I2">
-        <v>3.69738339021615</v>
+        <v>7.00389105058367</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3">
-        <v>17.9075</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>13.7025</v>
+        <v>29.805</v>
       </c>
       <c r="F3">
-        <v>8.745</v>
+        <v>16.37</v>
       </c>
       <c r="G3">
-        <v>6.59420289855074</v>
+        <v>6.17782909930716</v>
       </c>
       <c r="H3">
-        <v>13.1237183868763</v>
+        <v>3.55191256830601</v>
       </c>
       <c r="I3">
-        <v>5.012077294686</v>
+        <v>6.94223635400105</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>1126</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>1127</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>27.955</v>
+        <v>4.4275</v>
       </c>
       <c r="E4">
-        <v>29.29</v>
+        <v>10.1975</v>
       </c>
       <c r="F4">
-        <v>29.41</v>
+        <v>13.905</v>
       </c>
       <c r="G4">
-        <v>3.69266275603423</v>
+        <v>12.6999802488643</v>
       </c>
       <c r="H4">
-        <v>4.81850009213193</v>
+        <v>0.83245706274098</v>
       </c>
       <c r="I4">
-        <v>0.730752501087426</v>
+        <v>6.4824469933959</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>1062</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>1063</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>15.56</v>
+        <v>7.63</v>
       </c>
       <c r="E5">
-        <v>12.915</v>
+        <v>5.1125</v>
       </c>
       <c r="F5">
-        <v>9.535</v>
+        <v>2.535</v>
       </c>
       <c r="G5">
-        <v>16.2402392423991</v>
+        <v>5.38514646414834</v>
       </c>
       <c r="H5">
-        <v>4.09081173698864</v>
+        <v>1.06981981981981</v>
       </c>
       <c r="I5">
-        <v>3.60581847981971</v>
+        <v>6.41929499072355</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>1324</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>1325</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>15.7775</v>
+        <v>21.8425</v>
       </c>
       <c r="E6">
-        <v>19.1925</v>
+        <v>22.4775</v>
       </c>
       <c r="F6">
-        <v>22.33</v>
+        <v>12.705</v>
       </c>
       <c r="G6">
-        <v>8.75524475524476</v>
+        <v>18.3012329760658</v>
       </c>
       <c r="H6">
-        <v>3.72267759562842</v>
+        <v>0.259864596867949</v>
       </c>
       <c r="I6">
-        <v>2.22568988173455</v>
+        <v>5.57455540355678</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>17.9075</v>
       </c>
       <c r="E7">
-        <v>29.805</v>
+        <v>13.7025</v>
       </c>
       <c r="F7">
-        <v>16.37</v>
+        <v>8.745</v>
       </c>
       <c r="G7">
-        <v>6.17782909930716</v>
+        <v>6.59420289855074</v>
       </c>
       <c r="H7">
-        <v>3.55191256830601</v>
+        <v>13.1237183868763</v>
       </c>
       <c r="I7">
-        <v>6.94223635400105</v>
+        <v>5.012077294686</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>1192</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>1193</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>11.35</v>
       </c>
       <c r="E8">
-        <v>0.465</v>
+        <v>13.2775</v>
       </c>
       <c r="F8">
-        <v>0.6</v>
+        <v>9.085</v>
       </c>
       <c r="G8">
-        <v>4.59183673469388</v>
+        <v>1.77987300365595</v>
       </c>
       <c r="H8">
-        <v>3.0903090309031</v>
+        <v>0.681302043906141</v>
       </c>
       <c r="I8">
-        <v>3.52675974403723</v>
+        <v>4.86891385767791</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>1072</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>1073</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>10.7975</v>
+        <v>9.5725</v>
       </c>
       <c r="E9">
-        <v>11.4975</v>
+        <v>11.69</v>
       </c>
       <c r="F9">
-        <v>5.37</v>
+        <v>7.415</v>
       </c>
       <c r="G9">
-        <v>1.84633710541989</v>
+        <v>3.33108042869556</v>
       </c>
       <c r="H9">
-        <v>2.80701754385965</v>
+        <v>1.02919161676648</v>
       </c>
       <c r="I9">
-        <v>1.02040816326531</v>
+        <v>4.4643682410574</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>1270</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>1271</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="D10">
-        <v>18.4275</v>
+        <v>5.2675</v>
       </c>
       <c r="E10">
-        <v>12.6825</v>
+        <v>0.43</v>
       </c>
       <c r="F10">
-        <v>11.82</v>
+        <v>0.76</v>
       </c>
       <c r="G10">
-        <v>6.19697528587237</v>
+        <v>9.13061059441973</v>
       </c>
       <c r="H10">
-        <v>2.54551730088876</v>
+        <v>0.472359583733114</v>
       </c>
       <c r="I10">
-        <v>2.39093959731543</v>
+        <v>4.10739038447509</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>1394</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>1395</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>0.27</v>
+        <v>16.99</v>
       </c>
       <c r="E11">
-        <v>1.07</v>
+        <v>7.765</v>
       </c>
       <c r="F11">
-        <v>2.83</v>
+        <v>11.56</v>
       </c>
       <c r="G11">
-        <v>4.10602409638554</v>
+        <v>9.51176677204074</v>
       </c>
       <c r="H11">
-        <v>2.44263508512213</v>
+        <v>0.070530905360341</v>
       </c>
       <c r="I11">
-        <v>1.33610183262618</v>
+        <v>3.86482688130829</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>10.67</v>
+        <v>15.8775</v>
       </c>
       <c r="E12">
-        <v>11.4975</v>
+        <v>14.645</v>
       </c>
       <c r="F12">
-        <v>5.37</v>
+        <v>8.01</v>
       </c>
       <c r="G12">
-        <v>1.46788990825688</v>
+        <v>7.68672951414069</v>
       </c>
       <c r="H12">
-        <v>2.41109101868596</v>
+        <v>18.9445196211096</v>
       </c>
       <c r="I12">
-        <v>0.762910798122073</v>
+        <v>3.69738339021615</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>628</v>
+        <v>1350</v>
       </c>
       <c r="B13" t="s">
-        <v>629</v>
+        <v>1351</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>10.0625</v>
+        <v>13.735</v>
       </c>
       <c r="E13">
-        <v>10.42</v>
+        <v>15.0725</v>
       </c>
       <c r="F13">
-        <v>6.235</v>
+        <v>13.58</v>
       </c>
       <c r="G13">
-        <v>7.27101038715769</v>
+        <v>6.29742033383915</v>
       </c>
       <c r="H13">
-        <v>2.02108963093147</v>
+        <v>0.214285714285722</v>
       </c>
       <c r="I13">
-        <v>3.09544282029235</v>
+        <v>3.69580668088131</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>676</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>677</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>15.16</v>
+        <v>15.56</v>
       </c>
       <c r="E14">
-        <v>13.0225</v>
+        <v>12.915</v>
       </c>
       <c r="F14">
-        <v>11.96</v>
+        <v>9.535</v>
       </c>
       <c r="G14">
-        <v>6.19490695396669</v>
+        <v>16.2402392423991</v>
       </c>
       <c r="H14">
-        <v>1.9363232818001</v>
+        <v>4.09081173698864</v>
       </c>
       <c r="I14">
-        <v>2.77549188299543</v>
+        <v>3.60581847981971</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>832</v>
+        <v>1262</v>
       </c>
       <c r="B15" t="s">
-        <v>833</v>
+        <v>1263</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15">
-        <v>4.4275</v>
+        <v>10.0025</v>
       </c>
       <c r="E15">
-        <v>10.1975</v>
+        <v>15.23</v>
       </c>
       <c r="F15">
-        <v>13.905</v>
+        <v>9.845</v>
       </c>
       <c r="G15">
-        <v>13.5826977327343</v>
+        <v>11.8349080059672</v>
       </c>
       <c r="H15">
-        <v>1.63723325974982</v>
+        <v>0.488640690442938</v>
       </c>
       <c r="I15">
-        <v>7.00389105058367</v>
+        <v>3.59477124183007</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>914</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>915</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
       </c>
       <c r="D16">
-        <v>14.0625</v>
+        <v>0.25</v>
       </c>
       <c r="E16">
-        <v>17.7225</v>
+        <v>0.465</v>
       </c>
       <c r="F16">
-        <v>8.12</v>
+        <v>0.6</v>
       </c>
       <c r="G16">
-        <v>7.18405428329092</v>
+        <v>4.59183673469388</v>
       </c>
       <c r="H16">
-        <v>1.45886479591837</v>
+        <v>3.0903090309031</v>
       </c>
       <c r="I16">
-        <v>1.98762567672081</v>
+        <v>3.52675974403723</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -26233,934 +26232,937 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>982</v>
+        <v>1226</v>
       </c>
       <c r="B18" t="s">
-        <v>983</v>
+        <v>1227</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>15.96</v>
+        <v>15.8075</v>
       </c>
       <c r="E18">
-        <v>14.745</v>
+        <v>10.3325</v>
       </c>
       <c r="F18">
-        <v>9.71</v>
+        <v>2.275</v>
       </c>
       <c r="G18">
-        <v>4.07986111111111</v>
+        <v>6.25931445603576</v>
       </c>
       <c r="H18">
-        <v>1.29749768303985</v>
+        <v>0.56140350877193</v>
       </c>
       <c r="I18">
-        <v>2.15210651103411</v>
+        <v>3.37979094076655</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>1052</v>
+        <v>1198</v>
       </c>
       <c r="B19" t="s">
-        <v>1053</v>
+        <v>1199</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19">
-        <v>7.355</v>
+        <v>21.71</v>
       </c>
       <c r="E19">
-        <v>0.5975</v>
+        <v>5.07333333333333</v>
       </c>
       <c r="F19">
-        <v>1.905</v>
+        <v>5.53</v>
       </c>
       <c r="G19">
-        <v>2.06362854686157</v>
+        <v>1.14835948644793</v>
       </c>
       <c r="H19">
-        <v>1.11204717775905</v>
+        <v>0.66262512336105</v>
       </c>
       <c r="I19">
-        <v>1.53205661948376</v>
+        <v>3.21091290661071</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>1062</v>
+        <v>1184</v>
       </c>
       <c r="B20" t="s">
-        <v>1063</v>
+        <v>1185</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>7.63</v>
+        <v>9.9175</v>
       </c>
       <c r="E20">
-        <v>5.1125</v>
+        <v>9.045</v>
       </c>
       <c r="F20">
-        <v>2.535</v>
+        <v>4.03</v>
       </c>
       <c r="G20">
-        <v>5.38514646414834</v>
+        <v>4.6799491309877</v>
       </c>
       <c r="H20">
-        <v>1.06981981981981</v>
+        <v>0.704624605167259</v>
       </c>
       <c r="I20">
-        <v>6.41929499072355</v>
+        <v>3.15662650602409</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>1072</v>
+        <v>628</v>
       </c>
       <c r="B21" t="s">
-        <v>1073</v>
+        <v>629</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21">
-        <v>9.5725</v>
+        <v>10.0625</v>
       </c>
       <c r="E21">
-        <v>11.69</v>
+        <v>10.42</v>
       </c>
       <c r="F21">
-        <v>7.415</v>
+        <v>6.235</v>
       </c>
       <c r="G21">
-        <v>3.33108042869556</v>
+        <v>7.27101038715769</v>
       </c>
       <c r="H21">
-        <v>1.02919161676648</v>
+        <v>2.02108963093147</v>
       </c>
       <c r="I21">
-        <v>4.4643682410574</v>
+        <v>3.09544282029235</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>1098</v>
+        <v>1148</v>
       </c>
       <c r="B22" t="s">
-        <v>1099</v>
+        <v>1149</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22">
-        <v>29.2675</v>
+        <v>13.4275</v>
       </c>
       <c r="E22">
-        <v>6.585</v>
+        <v>14.16</v>
       </c>
       <c r="F22">
-        <v>9.03</v>
+        <v>7.71</v>
       </c>
       <c r="G22">
-        <v>8.45864661654135</v>
+        <v>7.57318781800752</v>
       </c>
       <c r="H22">
-        <v>0.921658986175116</v>
+        <v>0.794683839145033</v>
       </c>
       <c r="I22">
-        <v>2.79520821448946</v>
+        <v>3.06557487988089</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>1126</v>
+        <v>1220</v>
       </c>
       <c r="B23" t="s">
-        <v>1127</v>
+        <v>1221</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>4.4275</v>
+        <v>11.1775</v>
       </c>
       <c r="E23">
-        <v>10.1975</v>
+        <v>11.535</v>
       </c>
       <c r="F23">
-        <v>13.905</v>
+        <v>8.97</v>
       </c>
       <c r="G23">
-        <v>12.6999802488643</v>
+        <v>3.45303867403314</v>
       </c>
       <c r="H23">
-        <v>0.83245706274098</v>
+        <v>0.580897057423102</v>
       </c>
       <c r="I23">
-        <v>6.4824469933959</v>
+        <v>3.03857008466604</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>1138</v>
+        <v>1098</v>
       </c>
       <c r="B24" t="s">
-        <v>1139</v>
+        <v>1099</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>5.13</v>
+        <v>29.2675</v>
       </c>
       <c r="E24">
-        <v>2.285</v>
+        <v>6.585</v>
       </c>
       <c r="F24">
-        <v>3.26</v>
+        <v>9.03</v>
       </c>
       <c r="G24">
-        <v>3.06406685236769</v>
+        <v>8.45864661654135</v>
       </c>
       <c r="H24">
-        <v>0.810263335584065</v>
+        <v>0.921658986175116</v>
       </c>
       <c r="I24">
-        <v>2.21031480241125</v>
+        <v>2.79520821448946</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>1148</v>
+        <v>676</v>
       </c>
       <c r="B25" t="s">
-        <v>1149</v>
+        <v>677</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>13.4275</v>
+        <v>15.16</v>
       </c>
       <c r="E25">
-        <v>14.16</v>
+        <v>13.0225</v>
       </c>
       <c r="F25">
-        <v>7.71</v>
+        <v>11.96</v>
       </c>
       <c r="G25">
-        <v>7.57318781800752</v>
+        <v>6.19490695396669</v>
       </c>
       <c r="H25">
-        <v>0.794683839145033</v>
+        <v>1.9363232818001</v>
       </c>
       <c r="I25">
-        <v>3.06557487988089</v>
+        <v>2.77549188299543</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>1158</v>
+        <v>1362</v>
       </c>
       <c r="B26" t="s">
-        <v>1159</v>
+        <v>1363</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
       </c>
       <c r="D26">
-        <v>6.6625</v>
+        <v>9.3675</v>
       </c>
       <c r="E26">
-        <v>12.4775</v>
+        <v>10.745</v>
       </c>
       <c r="F26">
-        <v>9.905</v>
+        <v>9.095</v>
       </c>
       <c r="G26">
-        <v>4.87459928342448</v>
+        <v>4.18843825163805</v>
       </c>
       <c r="H26">
-        <v>0.777365994757294</v>
+        <v>0.175256910698636</v>
       </c>
       <c r="I26">
-        <v>2.26344754127462</v>
+        <v>2.57408437276555</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>1160</v>
+        <v>1366</v>
       </c>
       <c r="B27" t="s">
-        <v>1161</v>
+        <v>1367</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>18.645</v>
+        <v>4.1</v>
       </c>
       <c r="E27">
-        <v>10.0725</v>
+        <v>0.5825</v>
       </c>
       <c r="F27">
-        <v>6.35</v>
+        <v>1.055</v>
       </c>
       <c r="G27">
-        <v>11.6421272829673</v>
+        <v>3.52112676056338</v>
       </c>
       <c r="H27">
-        <v>0.771393554898705</v>
+        <v>0.170357751277683</v>
       </c>
       <c r="I27">
-        <v>1.66607079013228</v>
+        <v>2.54668930390493</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>1170</v>
+        <v>1316</v>
       </c>
       <c r="B28" t="s">
-        <v>1171</v>
+        <v>1317</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D28">
-        <v>9.63</v>
+        <v>1.875</v>
       </c>
       <c r="E28">
-        <v>12.1725</v>
+        <v>1.835</v>
       </c>
       <c r="F28">
-        <v>10.87</v>
+        <v>2.285</v>
       </c>
       <c r="G28">
-        <v>3.41571227647177</v>
+        <v>5.73166236638408</v>
       </c>
       <c r="H28">
-        <v>0.750809061488677</v>
+        <v>0.278333478298695</v>
       </c>
       <c r="I28">
-        <v>0.866606753113355</v>
+        <v>2.43543075056336</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>1184</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s">
-        <v>1185</v>
+        <v>297</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D29">
-        <v>9.9175</v>
+        <v>18.4275</v>
       </c>
       <c r="E29">
-        <v>9.045</v>
+        <v>12.6825</v>
       </c>
       <c r="F29">
-        <v>4.03</v>
+        <v>11.82</v>
       </c>
       <c r="G29">
-        <v>4.6799491309877</v>
+        <v>6.19697528587237</v>
       </c>
       <c r="H29">
-        <v>0.704624605167259</v>
+        <v>2.54551730088876</v>
       </c>
       <c r="I29">
-        <v>3.15662650602409</v>
+        <v>2.39093959731543</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>1192</v>
+        <v>1392</v>
       </c>
       <c r="B30" t="s">
-        <v>1193</v>
+        <v>1393</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30">
-        <v>11.35</v>
+        <v>15.0875</v>
       </c>
       <c r="E30">
-        <v>13.2775</v>
+        <v>8.345</v>
       </c>
       <c r="F30">
-        <v>9.085</v>
+        <v>16.59</v>
       </c>
       <c r="G30">
-        <v>1.77987300365595</v>
+        <v>7.97740306428145</v>
       </c>
       <c r="H30">
-        <v>0.681302043906141</v>
+        <v>0.0792393026941276</v>
       </c>
       <c r="I30">
-        <v>4.86891385767791</v>
+        <v>2.29730796557986</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>1198</v>
+        <v>1158</v>
       </c>
       <c r="B31" t="s">
-        <v>1199</v>
+        <v>1159</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D31">
-        <v>21.71</v>
+        <v>6.6625</v>
       </c>
       <c r="E31">
-        <v>5.07333333333333</v>
+        <v>12.4775</v>
       </c>
       <c r="F31">
-        <v>5.53</v>
+        <v>9.905</v>
       </c>
       <c r="G31">
-        <v>1.14835948644793</v>
+        <v>4.87459928342448</v>
       </c>
       <c r="H31">
-        <v>0.66262512336105</v>
+        <v>0.777365994757294</v>
       </c>
       <c r="I31">
-        <v>3.21091290661071</v>
+        <v>2.26344754127462</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>1220</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>1221</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="D32">
-        <v>11.1775</v>
+        <v>15.7775</v>
       </c>
       <c r="E32">
-        <v>11.535</v>
+        <v>19.1925</v>
       </c>
       <c r="F32">
-        <v>8.97</v>
+        <v>22.33</v>
       </c>
       <c r="G32">
-        <v>3.45303867403314</v>
+        <v>8.75524475524476</v>
       </c>
       <c r="H32">
-        <v>0.580897057423102</v>
+        <v>3.72267759562842</v>
       </c>
       <c r="I32">
-        <v>3.03857008466604</v>
+        <v>2.22568988173455</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>1226</v>
+        <v>1348</v>
       </c>
       <c r="B33" t="s">
-        <v>1227</v>
+        <v>1349</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>15.8075</v>
+        <v>7.4325</v>
       </c>
       <c r="E33">
-        <v>10.3325</v>
+        <v>9.63</v>
       </c>
       <c r="F33">
-        <v>2.275</v>
+        <v>6.185</v>
       </c>
       <c r="G33">
-        <v>6.25931445603576</v>
+        <v>4.31251046725842</v>
       </c>
       <c r="H33">
-        <v>0.56140350877193</v>
+        <v>0.232838217583292</v>
       </c>
       <c r="I33">
-        <v>3.37979094076655</v>
+        <v>2.21302340391658</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>1262</v>
+        <v>1138</v>
       </c>
       <c r="B34" t="s">
-        <v>1263</v>
+        <v>1139</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>10.0025</v>
+        <v>5.13</v>
       </c>
       <c r="E34">
-        <v>15.23</v>
+        <v>2.285</v>
       </c>
       <c r="F34">
-        <v>9.845</v>
+        <v>3.26</v>
       </c>
       <c r="G34">
-        <v>11.8349080059672</v>
+        <v>3.06406685236769</v>
       </c>
       <c r="H34">
-        <v>0.488640690442938</v>
+        <v>0.810263335584065</v>
       </c>
       <c r="I34">
-        <v>3.59477124183007</v>
+        <v>2.21031480241125</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>1270</v>
+        <v>982</v>
       </c>
       <c r="B35" t="s">
-        <v>1271</v>
+        <v>983</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
       </c>
       <c r="D35">
-        <v>5.2675</v>
+        <v>15.96</v>
       </c>
       <c r="E35">
-        <v>0.43</v>
+        <v>14.745</v>
       </c>
       <c r="F35">
-        <v>0.76</v>
+        <v>9.71</v>
       </c>
       <c r="G35">
-        <v>9.13061059441973</v>
+        <v>4.07986111111111</v>
       </c>
       <c r="H35">
-        <v>0.472359583733114</v>
+        <v>1.29749768303985</v>
       </c>
       <c r="I35">
-        <v>4.10739038447509</v>
+        <v>2.15210651103411</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>1282</v>
+        <v>1296</v>
       </c>
       <c r="B36" t="s">
-        <v>1283</v>
+        <v>1297</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D36">
-        <v>27.27</v>
+        <v>6.3725</v>
       </c>
       <c r="E36">
-        <v>22.815</v>
+        <v>3.07</v>
       </c>
       <c r="F36">
-        <v>21.985</v>
+        <v>4.435</v>
       </c>
       <c r="G36">
-        <v>3.78382452702194</v>
+        <v>3.3541728689094</v>
       </c>
       <c r="H36">
-        <v>0.409266973616884</v>
+        <v>0.374352082933386</v>
       </c>
       <c r="I36">
-        <v>0.640698944302886</v>
+        <v>2.00726438539475</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>1286</v>
+        <v>914</v>
       </c>
       <c r="B37" t="s">
-        <v>1287</v>
+        <v>915</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>29.2675</v>
+        <v>14.0625</v>
       </c>
       <c r="E37">
-        <v>6.585</v>
+        <v>17.7225</v>
       </c>
       <c r="F37">
-        <v>9.03</v>
+        <v>8.12</v>
       </c>
       <c r="G37">
-        <v>8.25456836798992</v>
+        <v>7.18405428329092</v>
       </c>
       <c r="H37">
-        <v>0.406504065040657</v>
+        <v>1.45886479591837</v>
       </c>
       <c r="I37">
-        <v>1.3880855986119</v>
+        <v>1.98762567672081</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>1296</v>
+        <v>1160</v>
       </c>
       <c r="B38" t="s">
-        <v>1297</v>
+        <v>1161</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>6.3725</v>
+        <v>18.645</v>
       </c>
       <c r="E38">
-        <v>3.07</v>
+        <v>10.0725</v>
       </c>
       <c r="F38">
-        <v>4.435</v>
+        <v>6.35</v>
       </c>
       <c r="G38">
-        <v>3.3541728689094</v>
+        <v>11.6421272829673</v>
       </c>
       <c r="H38">
-        <v>0.374352082933386</v>
+        <v>0.771393554898705</v>
       </c>
       <c r="I38">
-        <v>2.00726438539475</v>
+        <v>1.66607079013228</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>1302</v>
+        <v>1382</v>
       </c>
       <c r="B39" t="s">
-        <v>1303</v>
+        <v>1383</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
       </c>
       <c r="D39">
-        <v>9.63</v>
+        <v>9.0075</v>
       </c>
       <c r="E39">
-        <v>12.1725</v>
+        <v>12.4875</v>
       </c>
       <c r="F39">
-        <v>10.87</v>
+        <v>8.005</v>
       </c>
       <c r="G39">
-        <v>2.99604688258549</v>
+        <v>6.98508589767794</v>
       </c>
       <c r="H39">
-        <v>0.356662180349938</v>
+        <v>0.132391879964701</v>
       </c>
       <c r="I39">
-        <v>0.623157330474409</v>
+        <v>1.59162856137883</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>1316</v>
+        <v>1052</v>
       </c>
       <c r="B40" t="s">
-        <v>1317</v>
+        <v>1053</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>1.875</v>
+        <v>7.355</v>
       </c>
       <c r="E40">
-        <v>1.835</v>
+        <v>0.5975</v>
       </c>
       <c r="F40">
-        <v>2.285</v>
+        <v>1.905</v>
       </c>
       <c r="G40">
-        <v>5.73166236638408</v>
+        <v>2.06362854686157</v>
       </c>
       <c r="H40">
-        <v>0.278333478298695</v>
+        <v>1.11204717775905</v>
       </c>
       <c r="I40">
-        <v>2.43543075056336</v>
+        <v>1.53205661948376</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>1324</v>
+        <v>1286</v>
       </c>
       <c r="B41" t="s">
-        <v>1325</v>
+        <v>1287</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41">
-        <v>21.8425</v>
+        <v>29.2675</v>
       </c>
       <c r="E41">
-        <v>22.4775</v>
+        <v>6.585</v>
       </c>
       <c r="F41">
-        <v>12.705</v>
+        <v>9.03</v>
       </c>
       <c r="G41">
-        <v>18.3012329760658</v>
+        <v>8.25456836798992</v>
       </c>
       <c r="H41">
-        <v>0.259864596867949</v>
+        <v>0.406504065040657</v>
       </c>
       <c r="I41">
-        <v>5.57455540355678</v>
+        <v>1.3880855986119</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>1348</v>
+        <v>368</v>
       </c>
       <c r="B42" t="s">
-        <v>1349</v>
+        <v>369</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>7.4325</v>
+        <v>0.27</v>
       </c>
       <c r="E42">
-        <v>9.63</v>
+        <v>1.07</v>
       </c>
       <c r="F42">
-        <v>6.185</v>
+        <v>2.83</v>
       </c>
       <c r="G42">
-        <v>4.31251046725842</v>
+        <v>4.10602409638554</v>
       </c>
       <c r="H42">
-        <v>0.232838217583292</v>
+        <v>2.44263508512213</v>
       </c>
       <c r="I42">
-        <v>2.21302340391658</v>
+        <v>1.33610183262618</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>1350</v>
+        <v>1402</v>
       </c>
       <c r="B43" t="s">
-        <v>1351</v>
+        <v>1403</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
       </c>
       <c r="D43">
-        <v>13.735</v>
+        <v>12.585</v>
       </c>
       <c r="E43">
-        <v>15.0725</v>
+        <v>11.115</v>
       </c>
       <c r="F43">
-        <v>13.58</v>
+        <v>4.615</v>
       </c>
       <c r="G43">
-        <v>6.29742033383915</v>
+        <v>7.06413730803975</v>
       </c>
       <c r="H43">
-        <v>0.214285714285722</v>
+        <v>0.0506243671954045</v>
       </c>
       <c r="I43">
-        <v>3.69580668088131</v>
+        <v>1.30186460608095</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>1362</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
-        <v>1363</v>
+        <v>189</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D44">
-        <v>9.3675</v>
+        <v>10.7975</v>
       </c>
       <c r="E44">
-        <v>10.745</v>
+        <v>11.4975</v>
       </c>
       <c r="F44">
-        <v>9.095</v>
+        <v>5.37</v>
       </c>
       <c r="G44">
-        <v>4.18843825163805</v>
+        <v>1.84633710541989</v>
       </c>
       <c r="H44">
-        <v>0.175256910698636</v>
+        <v>2.80701754385965</v>
       </c>
       <c r="I44">
-        <v>2.57408437276555</v>
+        <v>1.02040816326531</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>1366</v>
+        <v>1170</v>
       </c>
       <c r="B45" t="s">
-        <v>1367</v>
+        <v>1171</v>
       </c>
       <c r="C45" t="s">
         <v>42</v>
       </c>
       <c r="D45">
-        <v>4.1</v>
+        <v>9.63</v>
       </c>
       <c r="E45">
-        <v>0.5825</v>
+        <v>12.1725</v>
       </c>
       <c r="F45">
-        <v>1.055</v>
+        <v>10.87</v>
       </c>
       <c r="G45">
-        <v>3.52112676056338</v>
+        <v>3.41571227647177</v>
       </c>
       <c r="H45">
-        <v>0.170357751277683</v>
+        <v>0.750809061488677</v>
       </c>
       <c r="I45">
-        <v>2.54668930390493</v>
+        <v>0.866606753113355</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>1382</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s">
-        <v>1383</v>
+        <v>385</v>
       </c>
       <c r="C46" t="s">
         <v>42</v>
       </c>
       <c r="D46">
-        <v>9.0075</v>
+        <v>10.67</v>
       </c>
       <c r="E46">
-        <v>12.4875</v>
+        <v>11.4975</v>
       </c>
       <c r="F46">
-        <v>8.005</v>
+        <v>5.37</v>
       </c>
       <c r="G46">
-        <v>6.98508589767794</v>
+        <v>1.46788990825688</v>
       </c>
       <c r="H46">
-        <v>0.132391879964701</v>
+        <v>2.41109101868596</v>
       </c>
       <c r="I46">
-        <v>1.59162856137883</v>
+        <v>0.762910798122073</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>1392</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>1393</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>45</v>
       </c>
       <c r="D47">
-        <v>15.0875</v>
+        <v>27.955</v>
       </c>
       <c r="E47">
-        <v>8.345</v>
+        <v>29.29</v>
       </c>
       <c r="F47">
-        <v>16.59</v>
+        <v>29.41</v>
       </c>
       <c r="G47">
-        <v>7.97740306428145</v>
+        <v>3.69266275603423</v>
       </c>
       <c r="H47">
-        <v>0.0792393026941276</v>
+        <v>4.81850009213193</v>
       </c>
       <c r="I47">
-        <v>2.29730796557986</v>
+        <v>0.730752501087426</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>1394</v>
+        <v>1282</v>
       </c>
       <c r="B48" t="s">
-        <v>1395</v>
+        <v>1283</v>
       </c>
       <c r="C48" t="s">
         <v>45</v>
       </c>
       <c r="D48">
-        <v>16.99</v>
+        <v>27.27</v>
       </c>
       <c r="E48">
-        <v>7.765</v>
+        <v>22.815</v>
       </c>
       <c r="F48">
-        <v>11.56</v>
+        <v>21.985</v>
       </c>
       <c r="G48">
-        <v>9.51176677204074</v>
+        <v>3.78382452702194</v>
       </c>
       <c r="H48">
-        <v>0.070530905360341</v>
+        <v>0.409266973616884</v>
       </c>
       <c r="I48">
-        <v>3.86482688130829</v>
+        <v>0.640698944302886</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>1402</v>
+        <v>1302</v>
       </c>
       <c r="B49" t="s">
-        <v>1403</v>
+        <v>1303</v>
       </c>
       <c r="C49" t="s">
         <v>42</v>
       </c>
       <c r="D49">
-        <v>12.585</v>
+        <v>9.63</v>
       </c>
       <c r="E49">
-        <v>11.115</v>
+        <v>12.1725</v>
       </c>
       <c r="F49">
-        <v>4.615</v>
+        <v>10.87</v>
       </c>
       <c r="G49">
-        <v>7.06413730803975</v>
+        <v>2.99604688258549</v>
       </c>
       <c r="H49">
-        <v>0.0506243671954045</v>
+        <v>0.356662180349938</v>
       </c>
       <c r="I49">
-        <v>1.30186460608095</v>
+        <v>0.623157330474409</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I49">
+    <sortState ref="A2:I49">
+      <sortCondition ref="I2" descending="1"/>
+    </sortState>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
